--- a/1_semester/Support_and_testing_of_software_modules/Lab1/БД/RepairParts.xlsx
+++ b/1_semester/Support_and_testing_of_software_modules/Lab1/БД/RepairParts.xlsx
@@ -394,27 +394,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6">
-      <c r="A2" s="2" t="s">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
